--- a/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9747004086705773</v>
+        <v>0.9824983919318472</v>
       </c>
       <c r="D2">
-        <v>0.9982674319577741</v>
+        <v>1.004473823379318</v>
       </c>
       <c r="E2">
-        <v>0.9840400059300546</v>
+        <v>0.9913558853163591</v>
       </c>
       <c r="F2">
-        <v>0.9501605803888291</v>
+        <v>0.9583996194030856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035638600532799</v>
+        <v>1.038787124464537</v>
       </c>
       <c r="J2">
-        <v>0.9976650866298072</v>
+        <v>1.005215478444011</v>
       </c>
       <c r="K2">
-        <v>1.009750957095235</v>
+        <v>1.015871180631814</v>
       </c>
       <c r="L2">
-        <v>0.9957262597515748</v>
+        <v>1.002936974633783</v>
       </c>
       <c r="M2">
-        <v>0.9623608790805993</v>
+        <v>0.9704706364341594</v>
       </c>
       <c r="N2">
-        <v>0.9990818854866064</v>
+        <v>1.006642999723229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9832098411220238</v>
+        <v>0.9878983401614984</v>
       </c>
       <c r="D3">
-        <v>1.004784017549423</v>
+        <v>1.008521553905245</v>
       </c>
       <c r="E3">
-        <v>0.99113987910238</v>
+        <v>0.9957021634579195</v>
       </c>
       <c r="F3">
-        <v>0.9616936966581028</v>
+        <v>0.9666183304517423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03843958835693</v>
+        <v>1.040337934031675</v>
       </c>
       <c r="J3">
-        <v>1.004168928621613</v>
+        <v>1.00872443475585</v>
       </c>
       <c r="K3">
-        <v>1.015356049762516</v>
+        <v>1.019046548714747</v>
       </c>
       <c r="L3">
-        <v>1.001887396322199</v>
+        <v>1.006390332887396</v>
       </c>
       <c r="M3">
-        <v>0.9728413690470334</v>
+        <v>0.9776969380758045</v>
       </c>
       <c r="N3">
-        <v>1.005594963680042</v>
+        <v>1.010156939155513</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9885092613779387</v>
+        <v>0.9913001260195583</v>
       </c>
       <c r="D4">
-        <v>1.008843339074174</v>
+        <v>1.011070299086253</v>
       </c>
       <c r="E4">
-        <v>0.9955679870370383</v>
+        <v>0.9984465369651299</v>
       </c>
       <c r="F4">
-        <v>0.9688607376299657</v>
+        <v>0.9717819212431742</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040165407237463</v>
+        <v>1.041297388746078</v>
       </c>
       <c r="J4">
-        <v>1.008211539784598</v>
+        <v>1.010929024306509</v>
       </c>
       <c r="K4">
-        <v>1.018836191732911</v>
+        <v>1.021036926489332</v>
       </c>
       <c r="L4">
-        <v>1.005720198518708</v>
+        <v>1.008563747147023</v>
       </c>
       <c r="M4">
-        <v>0.9793501057679731</v>
+        <v>0.9822332824180402</v>
       </c>
       <c r="N4">
-        <v>1.009643315814572</v>
+        <v>1.012364659476204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9906911152886471</v>
+        <v>0.9927091547051577</v>
       </c>
       <c r="D5">
-        <v>1.010514704203046</v>
+        <v>1.01212562712883</v>
       </c>
       <c r="E5">
-        <v>0.9973925532594027</v>
+        <v>0.9995847354302727</v>
       </c>
       <c r="F5">
-        <v>0.9718085532444879</v>
+        <v>0.9739178573984977</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040871419199684</v>
+        <v>1.041690531309053</v>
       </c>
       <c r="J5">
-        <v>1.009874041376668</v>
+        <v>1.01184072632707</v>
       </c>
       <c r="K5">
-        <v>1.02026640116786</v>
+        <v>1.021858889915439</v>
       </c>
       <c r="L5">
-        <v>1.007297156977081</v>
+        <v>1.009463448819239</v>
       </c>
       <c r="M5">
-        <v>0.9820260817502448</v>
+        <v>0.9841088110835687</v>
       </c>
       <c r="N5">
-        <v>1.011308178349594</v>
+        <v>1.013277656218208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9910548531311426</v>
+        <v>0.9929445289638145</v>
       </c>
       <c r="D6">
-        <v>1.010793338542655</v>
+        <v>1.012301892626051</v>
       </c>
       <c r="E6">
-        <v>0.997696809278301</v>
+        <v>0.9997749532531274</v>
       </c>
       <c r="F6">
-        <v>0.9722998300530723</v>
+        <v>0.9742745065095966</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040988849619796</v>
+        <v>1.041755951874099</v>
       </c>
       <c r="J6">
-        <v>1.010151084671069</v>
+        <v>1.011992937991762</v>
       </c>
       <c r="K6">
-        <v>1.02050467539324</v>
+        <v>1.021996050478328</v>
       </c>
       <c r="L6">
-        <v>1.007559987882199</v>
+        <v>1.009613709221018</v>
       </c>
       <c r="M6">
-        <v>0.9824719888267893</v>
+        <v>0.9844219216430911</v>
       </c>
       <c r="N6">
-        <v>1.011585615077251</v>
+        <v>1.013430084040923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9885385919526368</v>
+        <v>0.9913190350675303</v>
       </c>
       <c r="D7">
-        <v>1.008865807053996</v>
+        <v>1.011084463068433</v>
       </c>
       <c r="E7">
-        <v>0.9955925090280311</v>
+        <v>0.9984618057437896</v>
       </c>
       <c r="F7">
-        <v>0.9689003758514144</v>
+        <v>0.9718105959164718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040174916212361</v>
+        <v>1.041302681648268</v>
       </c>
       <c r="J7">
-        <v>1.008233896324225</v>
+        <v>1.010941265014751</v>
       </c>
       <c r="K7">
-        <v>1.018855428480179</v>
+        <v>1.021047966961534</v>
       </c>
       <c r="L7">
-        <v>1.005741401817628</v>
+        <v>1.008575823215881</v>
       </c>
       <c r="M7">
-        <v>0.9793860930299823</v>
+        <v>0.9822584649524124</v>
       </c>
       <c r="N7">
-        <v>1.00966570410305</v>
+        <v>1.012376917567656</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9776212431976391</v>
+        <v>0.9843430910741801</v>
       </c>
       <c r="D8">
-        <v>1.000503917055985</v>
+        <v>1.005856783656627</v>
       </c>
       <c r="E8">
-        <v>0.9864755529554473</v>
+        <v>0.9928392606174415</v>
       </c>
       <c r="F8">
-        <v>0.9541230506966638</v>
+        <v>0.9612105031938655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036603915164815</v>
+        <v>1.039320547937275</v>
       </c>
       <c r="J8">
-        <v>0.9998991392366219</v>
+        <v>1.006415425176849</v>
       </c>
       <c r="K8">
-        <v>1.011677066788784</v>
+        <v>1.016958001252022</v>
       </c>
       <c r="L8">
-        <v>0.9978418924492016</v>
+        <v>1.004117110366441</v>
       </c>
       <c r="M8">
-        <v>0.9659625296250374</v>
+        <v>0.9729428655096571</v>
       </c>
       <c r="N8">
-        <v>1.001319110704372</v>
+        <v>1.007844650518063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9566189409479738</v>
+        <v>0.971293001004245</v>
       </c>
       <c r="D9">
-        <v>0.9844343226782782</v>
+        <v>0.996071763991459</v>
       </c>
       <c r="E9">
-        <v>0.9689971726079736</v>
+        <v>0.9823751221978807</v>
       </c>
       <c r="F9">
-        <v>0.9255249336154895</v>
+        <v>0.9412417868004209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029584942693967</v>
+        <v>1.035474498238293</v>
       </c>
       <c r="J9">
-        <v>0.9838024222180154</v>
+        <v>0.9979018573204217</v>
       </c>
       <c r="K9">
-        <v>0.9977850935855246</v>
+        <v>1.009228897230331</v>
       </c>
       <c r="L9">
-        <v>0.9826141078681618</v>
+        <v>0.9957607732439175</v>
       </c>
       <c r="M9">
-        <v>0.939954120990883</v>
+        <v>0.955365991636234</v>
       </c>
       <c r="N9">
-        <v>0.9851995345012798</v>
+        <v>0.9993189924187595</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9411278226210903</v>
+        <v>0.9620055060381081</v>
       </c>
       <c r="D10">
-        <v>0.9726068804259649</v>
+        <v>0.9891104579087694</v>
       </c>
       <c r="E10">
-        <v>0.9561575997139234</v>
+        <v>0.9749690902053354</v>
       </c>
       <c r="F10">
-        <v>0.9042382594770704</v>
+        <v>0.9268927145751212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024311693900565</v>
+        <v>1.032647892075467</v>
       </c>
       <c r="J10">
-        <v>0.9718889335688937</v>
+        <v>0.9918121102211591</v>
       </c>
       <c r="K10">
-        <v>0.9874889897496828</v>
+        <v>1.003679149853383</v>
       </c>
       <c r="L10">
-        <v>0.9713662843343106</v>
+        <v>0.9898054867083569</v>
       </c>
       <c r="M10">
-        <v>0.9205822865514545</v>
+        <v>0.9427205439410544</v>
       </c>
       <c r="N10">
-        <v>0.9732691273317803</v>
+        <v>0.9932205971801125</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9339795706480125</v>
+        <v>0.9578245307802987</v>
       </c>
       <c r="D11">
-        <v>0.9671590099343106</v>
+        <v>0.9859787674879061</v>
       </c>
       <c r="E11">
-        <v>0.9502482939019324</v>
+        <v>0.9716459052617427</v>
       </c>
       <c r="F11">
-        <v>0.894346688174011</v>
+        <v>0.920388804186052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021857180707141</v>
+        <v>1.031355211486408</v>
       </c>
       <c r="J11">
-        <v>0.9663823762062623</v>
+        <v>0.9890635639215813</v>
       </c>
       <c r="K11">
-        <v>0.9827280223249917</v>
+        <v>1.001170038018913</v>
       </c>
       <c r="L11">
-        <v>0.9661736702155099</v>
+        <v>0.9871231078121927</v>
       </c>
       <c r="M11">
-        <v>0.9115799197937507</v>
+        <v>0.936986286638251</v>
       </c>
       <c r="N11">
-        <v>0.967754750026083</v>
+        <v>0.9904681476295267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9312488395894482</v>
+        <v>0.9562456323569112</v>
       </c>
       <c r="D12">
-        <v>0.9650797027591188</v>
+        <v>0.9847965729908841</v>
       </c>
       <c r="E12">
-        <v>0.9479934721952372</v>
+        <v>0.9703926619495041</v>
       </c>
       <c r="F12">
-        <v>0.8905550299185873</v>
+        <v>0.9179248438441658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020916499193077</v>
+        <v>1.030864097966337</v>
       </c>
       <c r="J12">
-        <v>0.9642774563485876</v>
+        <v>0.9880245516496368</v>
       </c>
       <c r="K12">
-        <v>0.9809079598060867</v>
+        <v>1.000220960442636</v>
       </c>
       <c r="L12">
-        <v>0.9641897947698161</v>
+        <v>0.986109957571913</v>
       </c>
       <c r="M12">
-        <v>0.9081292993281802</v>
+        <v>0.9348136271080458</v>
       </c>
       <c r="N12">
-        <v>0.9656468409407729</v>
+        <v>0.9894276598409794</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9318381823040078</v>
+        <v>0.9565855171189001</v>
       </c>
       <c r="D13">
-        <v>0.9655283657223604</v>
+        <v>0.9850510376976559</v>
       </c>
       <c r="E13">
-        <v>0.9484799816595956</v>
+        <v>0.9706623646218396</v>
       </c>
       <c r="F13">
-        <v>0.8913739718310006</v>
+        <v>0.9184556274080867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021119649209286</v>
+        <v>1.030969950067738</v>
       </c>
       <c r="J13">
-        <v>0.9647317970947192</v>
+        <v>0.9882482641621969</v>
       </c>
       <c r="K13">
-        <v>0.9813008190090414</v>
+        <v>1.00042533377417</v>
       </c>
       <c r="L13">
-        <v>0.9646179599316829</v>
+        <v>0.9863280628681103</v>
       </c>
       <c r="M13">
-        <v>0.9088745686274807</v>
+        <v>0.9352816696387607</v>
       </c>
       <c r="N13">
-        <v>0.9661018269028775</v>
+        <v>0.9896516900509674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9337554502532026</v>
+        <v>0.9576945589213367</v>
       </c>
       <c r="D14">
-        <v>0.9669883142304286</v>
+        <v>0.9858814415008237</v>
       </c>
       <c r="E14">
-        <v>0.9500631782707304</v>
+        <v>0.9715427052130094</v>
       </c>
       <c r="F14">
-        <v>0.8940357724805265</v>
+        <v>0.9201861419989572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021780035874052</v>
+        <v>1.031314843243381</v>
       </c>
       <c r="J14">
-        <v>0.9662096451249719</v>
+        <v>0.9889780557805954</v>
       </c>
       <c r="K14">
-        <v>0.9825786688981974</v>
+        <v>1.001091942576439</v>
       </c>
       <c r="L14">
-        <v>0.966010850527677</v>
+        <v>0.9870397106611919</v>
       </c>
       <c r="M14">
-        <v>0.9112969636040009</v>
+        <v>0.936807589073678</v>
       </c>
       <c r="N14">
-        <v>0.9675817736468446</v>
+        <v>0.9903825180571726</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9349264163022329</v>
+        <v>0.9583743823617716</v>
       </c>
       <c r="D15">
-        <v>0.9678802287801601</v>
+        <v>0.9863905285774562</v>
       </c>
       <c r="E15">
-        <v>0.9510304631422273</v>
+        <v>0.9720825681079771</v>
       </c>
       <c r="F15">
-        <v>0.8956596787974528</v>
+        <v>0.9212458493830521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022182974562476</v>
+        <v>1.031525871747737</v>
       </c>
       <c r="J15">
-        <v>0.9671120624793746</v>
+        <v>0.9894252669881455</v>
       </c>
       <c r="K15">
-        <v>0.9833589467794188</v>
+        <v>1.001500362012316</v>
       </c>
       <c r="L15">
-        <v>0.9668615293434016</v>
+        <v>0.9874759159991536</v>
       </c>
       <c r="M15">
-        <v>0.9127748473217613</v>
+        <v>0.9377419764191174</v>
       </c>
       <c r="N15">
-        <v>0.9684854725373995</v>
+        <v>0.9908303643559332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9415921919510706</v>
+        <v>0.9622794636222424</v>
       </c>
       <c r="D16">
-        <v>0.9729610201811564</v>
+        <v>0.9893157162196461</v>
       </c>
       <c r="E16">
-        <v>0.9565418239795607</v>
+        <v>0.975187073361757</v>
       </c>
       <c r="F16">
-        <v>0.9048792253307166</v>
+        <v>0.9273178676761479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024470723391949</v>
+        <v>1.032732182871167</v>
       </c>
       <c r="J16">
-        <v>0.9722464692302143</v>
+        <v>0.9919920619439669</v>
       </c>
       <c r="K16">
-        <v>0.9877980860384565</v>
+        <v>1.003843342092468</v>
       </c>
       <c r="L16">
-        <v>0.9717035719987114</v>
+        <v>0.9899812219897206</v>
       </c>
       <c r="M16">
-        <v>0.9211656419478471</v>
+        <v>0.9430953416749988</v>
       </c>
       <c r="N16">
-        <v>0.9736271707347502</v>
+        <v>0.9934008044550069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9456494977309485</v>
+        <v>0.9646850297271932</v>
       </c>
       <c r="D17">
-        <v>0.9760563577193094</v>
+        <v>0.9911183010942225</v>
       </c>
       <c r="E17">
-        <v>0.9599006341247429</v>
+        <v>0.9771023733053843</v>
       </c>
       <c r="F17">
-        <v>0.9104715563432427</v>
+        <v>0.9310459099011882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025857851395986</v>
+        <v>1.033470045771223</v>
       </c>
       <c r="J17">
-        <v>0.9753693251535828</v>
+        <v>0.9935713792211854</v>
       </c>
       <c r="K17">
-        <v>0.9904976471529017</v>
+        <v>1.005283871669814</v>
       </c>
       <c r="L17">
-        <v>0.9746502819976638</v>
+        <v>0.9915241563687027</v>
       </c>
       <c r="M17">
-        <v>0.9262552900847218</v>
+        <v>0.9463815574538027</v>
       </c>
       <c r="N17">
-        <v>0.9767544614717261</v>
+        <v>0.9949823645439096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9479742794078209</v>
+        <v>0.9660729159280605</v>
       </c>
       <c r="D18">
-        <v>0.9778308279567234</v>
+        <v>0.9921584869049614</v>
       </c>
       <c r="E18">
-        <v>0.9618265965867421</v>
+        <v>0.9782084135574112</v>
       </c>
       <c r="F18">
-        <v>0.9136696725048041</v>
+        <v>0.9331926995465198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026650676436018</v>
+        <v>1.033893842166508</v>
       </c>
       <c r="J18">
-        <v>0.9771578257494687</v>
+        <v>0.9944818921126977</v>
       </c>
       <c r="K18">
-        <v>0.9920435265932925</v>
+        <v>1.006113961932079</v>
       </c>
       <c r="L18">
-        <v>0.9763384754749755</v>
+        <v>0.992414207565242</v>
       </c>
       <c r="M18">
-        <v>0.9291658594673363</v>
+        <v>0.9482736761167779</v>
       </c>
       <c r="N18">
-        <v>0.9785455019436023</v>
+        <v>0.9958941704681652</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9487601376320923</v>
+        <v>0.9665436197997952</v>
       </c>
       <c r="D19">
-        <v>0.9784308011536438</v>
+        <v>0.9925112956358435</v>
       </c>
       <c r="E19">
-        <v>0.962477870923184</v>
+        <v>0.9785836978378093</v>
       </c>
       <c r="F19">
-        <v>0.9147497600674936</v>
+        <v>0.9339201238750281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026918338828657</v>
+        <v>1.034037246457919</v>
       </c>
       <c r="J19">
-        <v>0.9777622559743863</v>
+        <v>0.9947905798017186</v>
       </c>
       <c r="K19">
-        <v>0.9925659251717799</v>
+        <v>1.006395313078344</v>
       </c>
       <c r="L19">
-        <v>0.9769091014130222</v>
+        <v>0.9927160446636588</v>
       </c>
       <c r="M19">
-        <v>0.9301488152850571</v>
+        <v>0.9489147624783038</v>
       </c>
       <c r="N19">
-        <v>0.9791507905287683</v>
+        <v>0.9962032965291112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9452185698394382</v>
+        <v>0.9644285249200526</v>
       </c>
       <c r="D20">
-        <v>0.9757275063318168</v>
+        <v>0.9909260714895056</v>
       </c>
       <c r="E20">
-        <v>0.9595437449780176</v>
+        <v>0.9768980396497805</v>
       </c>
       <c r="F20">
-        <v>0.9098782561415563</v>
+        <v>0.9306488230842026</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0257107292269</v>
+        <v>1.033391565641014</v>
       </c>
       <c r="J20">
-        <v>0.9750377341461969</v>
+        <v>0.9934030466555701</v>
       </c>
       <c r="K20">
-        <v>0.9902110217421398</v>
+        <v>1.005130373846601</v>
       </c>
       <c r="L20">
-        <v>0.974337334116249</v>
+        <v>0.9913596481331054</v>
       </c>
       <c r="M20">
-        <v>0.9257153264794695</v>
+        <v>0.9460315559570108</v>
       </c>
       <c r="N20">
-        <v>0.976422399567076</v>
+        <v>0.9948137929267432</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9331930336735826</v>
+        <v>0.9573687054397773</v>
       </c>
       <c r="D21">
-        <v>0.9665599948310419</v>
+        <v>0.9856374425234938</v>
       </c>
       <c r="E21">
-        <v>0.9495986848286241</v>
+        <v>0.9712839995662839</v>
       </c>
       <c r="F21">
-        <v>0.8932553308905914</v>
+        <v>0.9196779157369948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021586397675951</v>
+        <v>1.031213588599182</v>
       </c>
       <c r="J21">
-        <v>0.965776165568499</v>
+        <v>0.9887636607122536</v>
       </c>
       <c r="K21">
-        <v>0.98220385519431</v>
+        <v>1.000896124370826</v>
       </c>
       <c r="L21">
-        <v>0.9656022612395596</v>
+        <v>0.9868306222459169</v>
       </c>
       <c r="M21">
-        <v>0.91058670828724</v>
+        <v>0.9363594560442676</v>
       </c>
       <c r="N21">
-        <v>0.9671476784996803</v>
+        <v>0.9901678185232421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9251887245382179</v>
+        <v>0.9527789402758582</v>
       </c>
       <c r="D22">
-        <v>0.960469162679372</v>
+        <v>0.9822018964882441</v>
       </c>
       <c r="E22">
-        <v>0.9429947311479863</v>
+        <v>0.9676442740847894</v>
       </c>
       <c r="F22">
-        <v>0.8821130139558084</v>
+        <v>0.912498990443454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018823512055204</v>
+        <v>1.029780462361483</v>
       </c>
       <c r="J22">
-        <v>0.9596037156439774</v>
+        <v>0.9857413228958208</v>
       </c>
       <c r="K22">
-        <v>0.9768666266118499</v>
+        <v>0.9981343793220371</v>
       </c>
       <c r="L22">
-        <v>0.9597868690632151</v>
+        <v>0.9838851585772861</v>
       </c>
       <c r="M22">
-        <v>0.9004473111938632</v>
+        <v>0.9300288614906749</v>
       </c>
       <c r="N22">
-        <v>0.9609664629882768</v>
+        <v>0.9871411886404428</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9294776826168702</v>
+        <v>0.9552270841090525</v>
       </c>
       <c r="D23">
-        <v>0.9637316367065336</v>
+        <v>0.9840340845383074</v>
       </c>
       <c r="E23">
-        <v>0.9465317701432688</v>
+        <v>0.9695846915211072</v>
       </c>
       <c r="F23">
-        <v>0.8880917223038034</v>
+        <v>0.916332972662344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020305541138234</v>
+        <v>1.030546461366195</v>
       </c>
       <c r="J23">
-        <v>0.9629118283381992</v>
+        <v>0.9873539883504252</v>
       </c>
       <c r="K23">
-        <v>0.9797271201205984</v>
+        <v>0.9996082859994377</v>
       </c>
       <c r="L23">
-        <v>0.9629030043741802</v>
+        <v>0.9854563282257411</v>
       </c>
       <c r="M23">
-        <v>0.9058876451803188</v>
+        <v>0.9334098906491592</v>
       </c>
       <c r="N23">
-        <v>0.9642792735819697</v>
+        <v>0.9887561442649684</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9454134160166836</v>
+        <v>0.9645444753530877</v>
       </c>
       <c r="D24">
-        <v>0.9758761953900252</v>
+        <v>0.9910129663856267</v>
       </c>
       <c r="E24">
-        <v>0.9597051098042954</v>
+        <v>0.9769904035007295</v>
       </c>
       <c r="F24">
-        <v>0.9101465389273284</v>
+        <v>0.9308283348408661</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025777257421636</v>
+        <v>1.033427047741738</v>
       </c>
       <c r="J24">
-        <v>0.9751876673214874</v>
+        <v>0.9934791417922129</v>
       </c>
       <c r="K24">
-        <v>0.9903406237564665</v>
+        <v>1.00519976417566</v>
       </c>
       <c r="L24">
-        <v>0.9744788357798251</v>
+        <v>0.9914340128783026</v>
       </c>
       <c r="M24">
-        <v>0.9259594913889961</v>
+        <v>0.9461897825384507</v>
       </c>
       <c r="N24">
-        <v>0.9765725456646726</v>
+        <v>0.9948899961272083</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.962285756874551</v>
+        <v>0.9747640973209749</v>
       </c>
       <c r="D25">
-        <v>0.9887670191171759</v>
+        <v>0.998674443727228</v>
       </c>
       <c r="E25">
-        <v>0.973705228432421</v>
+        <v>0.9851517023675401</v>
       </c>
       <c r="F25">
-        <v>0.9332674501249161</v>
+        <v>0.946573253437432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031495390661431</v>
+        <v>1.036513081525858</v>
       </c>
       <c r="J25">
-        <v>0.9881526068861103</v>
+        <v>1.000171654617529</v>
       </c>
       <c r="K25">
-        <v>1.00154225198644</v>
+        <v>1.011293372160497</v>
       </c>
       <c r="L25">
-        <v>0.9867259295333982</v>
+        <v>0.9979849769509164</v>
       </c>
       <c r="M25">
-        <v>0.9469982918642382</v>
+        <v>0.9600617299521291</v>
       </c>
       <c r="N25">
-        <v>0.989555896930577</v>
+        <v>1.001592013088379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9887875137011879</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.009095875693648</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163591</v>
+        <v>0.9968261110548381</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030856</v>
+        <v>1.011764983448423</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.041132350192691</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.011308839615128</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.020429928455733</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.008329841010221</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341594</v>
+        <v>1.023062810974761</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007825402831285</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.026824925978897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614984</v>
+        <v>0.9926726998109509</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.011829254547341</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579195</v>
+        <v>0.9998665037024066</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517423</v>
+        <v>1.014860251436169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.042018147358797</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.013365127242959</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.022312982574491</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.010501092923565</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758045</v>
+        <v>1.025306458806729</v>
       </c>
       <c r="N3">
-        <v>1.010156939155513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.00851210472844</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.028600655058245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195583</v>
+        <v>0.9951354490272876</v>
       </c>
       <c r="D4">
-        <v>1.011070299086253</v>
+        <v>1.013560573762113</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651299</v>
+        <v>1.001799563991801</v>
       </c>
       <c r="F4">
-        <v>0.9717819212431742</v>
+        <v>1.016831158544868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.042563303456801</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.014664414414941</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.023498043876951</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.011876318276792</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180402</v>
+        <v>1.026730603266296</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008945920160862</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.029727788011134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051577</v>
+        <v>0.9961588903683972</v>
       </c>
       <c r="D5">
-        <v>1.01212562712883</v>
+        <v>1.014279679321963</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302727</v>
+        <v>1.002604240764741</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984977</v>
+        <v>1.017652303606401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.042785869625388</v>
       </c>
       <c r="J5">
-        <v>1.01184072632707</v>
+        <v>1.015203324390308</v>
       </c>
       <c r="K5">
-        <v>1.021858889915439</v>
+        <v>1.023988405604566</v>
       </c>
       <c r="L5">
-        <v>1.009463448819239</v>
+        <v>1.012447522230782</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835687</v>
+        <v>1.02732286986329</v>
       </c>
       <c r="N5">
-        <v>1.013277656218208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009125833435011</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.030196534299097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638145</v>
+        <v>0.9963300432511645</v>
       </c>
       <c r="D6">
-        <v>1.012301892626051</v>
+        <v>1.014399913461591</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531274</v>
+        <v>1.002738887821158</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095966</v>
+        <v>1.017789748395816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.042822853915691</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.015293386013526</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.02407028432745</v>
       </c>
       <c r="L6">
-        <v>1.009613709221018</v>
+        <v>1.012543027796993</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430911</v>
+        <v>1.027421941113389</v>
       </c>
       <c r="N6">
-        <v>1.013430084040923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009155898868177</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.030274943688805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675303</v>
+        <v>0.9951491705810096</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.013570216568904</v>
       </c>
       <c r="E7">
-        <v>0.9984618057437896</v>
+        <v>1.001810347194321</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164718</v>
+        <v>1.016842159609667</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648268</v>
+        <v>1.04256630328346</v>
       </c>
       <c r="J7">
-        <v>1.010941265014751</v>
+        <v>1.014671643853921</v>
       </c>
       <c r="K7">
-        <v>1.021047966961534</v>
+        <v>1.023504626707608</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.011883977778749</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>1.026738542254219</v>
       </c>
       <c r="N7">
-        <v>1.012376917567656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008948333773383</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.02973407128353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741801</v>
+        <v>0.9901113624793876</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.010027494592835</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174415</v>
+        <v>0.997860861398395</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938655</v>
+        <v>1.012817793200242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.041437565167156</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.012010354168896</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.021073328874894</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.009069886855893</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096571</v>
+        <v>1.023826894013226</v>
       </c>
       <c r="N8">
-        <v>1.007844650518063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008059691946161</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.027429657972322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971293001004245</v>
+        <v>0.9808244914397504</v>
       </c>
       <c r="D9">
-        <v>0.996071763991459</v>
+        <v>1.003489042133917</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978807</v>
+        <v>0.9906282686598962</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004209</v>
+        <v>1.005471316711211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238293</v>
+        <v>1.039229773712844</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204217</v>
+        <v>1.007073044482456</v>
       </c>
       <c r="K9">
-        <v>1.009228897230331</v>
+        <v>1.016525764566406</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439175</v>
+        <v>1.003875247976519</v>
       </c>
       <c r="M9">
-        <v>0.955365991636234</v>
+        <v>1.018476244967221</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006410455415165</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023194886225376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381081</v>
+        <v>0.9744286147874811</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087694</v>
+        <v>0.9989898738232237</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053354</v>
+        <v>0.9856917828026129</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751212</v>
+        <v>1.000714558112894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.03764124465358</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211591</v>
+        <v>1.003694854902173</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.013377390392653</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083569</v>
+        <v>1.000324273106692</v>
       </c>
       <c r="M10">
-        <v>0.9427205439410544</v>
+        <v>1.015070922966518</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005285781942846</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020552312140477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802987</v>
+        <v>0.9723460855808737</v>
       </c>
       <c r="D11">
-        <v>0.9859787674879061</v>
+        <v>0.9975650354423096</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617427</v>
+        <v>0.9841731813178715</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>1.001173531709727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.037207050567082</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215813</v>
+        <v>1.002916334180907</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.012533018185436</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121927</v>
+        <v>0.9993998703204554</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>1.01607335082368</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005061636497301</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021790414222176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569112</v>
+        <v>0.9718220392792933</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908841</v>
+        <v>0.9972250727241765</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495041</v>
+        <v>0.9838310111185485</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441658</v>
+        <v>1.002198178216841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966337</v>
+        <v>1.0371396767062</v>
       </c>
       <c r="J12">
-        <v>0.9880245516496368</v>
+        <v>1.002868741234292</v>
       </c>
       <c r="K12">
-        <v>1.000220960442636</v>
+        <v>1.012405629761737</v>
       </c>
       <c r="L12">
-        <v>0.986109957571913</v>
+        <v>0.99927468083471</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080458</v>
+        <v>1.01728338542734</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005074230810956</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.023079332802696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171189001</v>
+        <v>0.972460354930669</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976559</v>
+        <v>0.9976959935172202</v>
       </c>
       <c r="E13">
-        <v>0.9706623646218396</v>
+        <v>0.9843670935340884</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080867</v>
+        <v>1.0037472681168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.037355245023885</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621969</v>
+        <v>1.003380692962596</v>
       </c>
       <c r="K13">
-        <v>1.00042533377417</v>
+        <v>1.012823285396853</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681103</v>
+        <v>0.9997549874810542</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387607</v>
+        <v>1.018759232886967</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005269847929555</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024526737217369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213367</v>
+        <v>0.9734224562904992</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008237</v>
+        <v>0.998384613142916</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130094</v>
+        <v>0.9851305251849134</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989572</v>
+        <v>1.005041043292645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.037629771303058</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805954</v>
+        <v>1.003981572427062</v>
       </c>
       <c r="K14">
-        <v>1.001091942576439</v>
+        <v>1.01335406667536</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611919</v>
+        <v>1.000355758792477</v>
       </c>
       <c r="M14">
-        <v>0.936807589073678</v>
+        <v>1.01988535995502</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005485880978745</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025592197459529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617716</v>
+        <v>0.9739187720256668</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774562</v>
+        <v>0.9987358952047881</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079771</v>
+        <v>0.9855161468944985</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830521</v>
+        <v>1.005518809908437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.037761834948852</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881455</v>
+        <v>1.004260370250821</v>
       </c>
       <c r="K15">
-        <v>1.001500362012316</v>
+        <v>1.013609629700441</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991536</v>
+        <v>1.000642996628431</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191174</v>
+        <v>1.02026604125795</v>
       </c>
       <c r="N15">
-        <v>0.9908303643559332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005582044203512</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.025930996246222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222424</v>
+        <v>0.9764876293212136</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196461</v>
+        <v>1.00053896683172</v>
       </c>
       <c r="E16">
-        <v>0.975187073361757</v>
+        <v>0.9874825631526807</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761479</v>
+        <v>1.007273547273471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871167</v>
+        <v>1.038405208323486</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439669</v>
+        <v>1.005586315154554</v>
       </c>
       <c r="K16">
-        <v>1.003843342092468</v>
+        <v>1.014861847726855</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897206</v>
+        <v>1.002044207944575</v>
       </c>
       <c r="M16">
-        <v>0.9430953416749988</v>
+        <v>1.021476410176339</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006018558450195</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.026848550199418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271932</v>
+        <v>0.977962035734017</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.001567114235888</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.9885993642501952</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011882</v>
+        <v>1.007947388933464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.038753869518694</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211854</v>
+        <v>1.006294260262341</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.015547721943373</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687027</v>
+        <v>1.002810285010253</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538027</v>
+        <v>1.021817491922437</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006241992977821</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.026987710337148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280605</v>
+        <v>0.9786028495640705</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049614</v>
+        <v>1.002000844871925</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574112</v>
+        <v>0.9890589229868123</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>1.007586305883369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166508</v>
+        <v>1.038872212327417</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126977</v>
+        <v>1.006499320058048</v>
       </c>
       <c r="K18">
-        <v>1.006113961932079</v>
+        <v>1.015785130273905</v>
       </c>
       <c r="L18">
-        <v>0.992414207565242</v>
+        <v>1.003069224577611</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167779</v>
+        <v>1.021275362185129</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681652</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006289616762886</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.026318426479916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997952</v>
+        <v>0.9784513542612717</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358435</v>
+        <v>1.00186836507505</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378093</v>
+        <v>0.9888902163161822</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750281</v>
+        <v>1.006175492712108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034037246457919</v>
+        <v>1.038770520704823</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017186</v>
+        <v>1.006214358084771</v>
       </c>
       <c r="K19">
-        <v>1.006395313078344</v>
+        <v>1.015590555120603</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636588</v>
+        <v>1.002837925005744</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783038</v>
+        <v>1.019824497655725</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006167845333602</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.024840681257363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9644285249200526</v>
+        <v>0.9760911973886311</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895056</v>
+        <v>1.00015950390287</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497805</v>
+        <v>0.9869727192331739</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>1.001958735602578</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.038060439735292</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555701</v>
+        <v>1.004575924446958</v>
       </c>
       <c r="K20">
-        <v>1.005130373846601</v>
+        <v>1.014199549206594</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331054</v>
+        <v>1.001248571957841</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>1.01596723022575</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005579299264542</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021250878955929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397773</v>
+        <v>0.9711299652784182</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234938</v>
+        <v>0.9966627285149634</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662839</v>
+        <v>0.9831410431301327</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>0.9978936212606083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.036781563994739</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122536</v>
+        <v>1.001886364263917</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.011707603566448</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459169</v>
+        <v>0.9984490110736043</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>1.012915009819926</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004677418941704</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.01879341797633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758582</v>
+        <v>0.9679868543771801</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882441</v>
+        <v>0.994451001954363</v>
       </c>
       <c r="E22">
-        <v>0.9676442740847894</v>
+        <v>0.9807268240291629</v>
       </c>
       <c r="F22">
-        <v>0.912498990443454</v>
+        <v>0.9954555132695346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361483</v>
+        <v>1.03596164338937</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958208</v>
+        <v>1.000199401124537</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220371</v>
+        <v>1.010133192926721</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772861</v>
+        <v>0.9966900052350666</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906749</v>
+        <v>1.011117538116131</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004113694109622</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.01737079351855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090525</v>
+        <v>0.9696599979264924</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>0.9956282157673979</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211072</v>
+        <v>0.9820111681495443</v>
       </c>
       <c r="F23">
-        <v>0.916332972662344</v>
+        <v>0.996752262301142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.036399559287435</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>1.001097685636424</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994377</v>
+        <v>1.010971946435397</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257411</v>
+        <v>0.9976263163493</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491592</v>
+        <v>1.012074022861421</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649684</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004413871791688</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.018127811986078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9645444753530877</v>
+        <v>0.9760969533391917</v>
       </c>
       <c r="D24">
-        <v>0.9910129663856267</v>
+        <v>1.000159658340149</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007295</v>
+        <v>0.9869693147134763</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408661</v>
+        <v>1.001764930224653</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.038052152454187</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922129</v>
+        <v>1.004547227195308</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.014183970779135</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783026</v>
+        <v>1.001229194487313</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384507</v>
+        <v>1.015761122440026</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005566541639692</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.021045992101333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209749</v>
+        <v>0.9832764492814644</v>
       </c>
       <c r="D25">
-        <v>0.998674443727228</v>
+        <v>1.00521584208957</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675401</v>
+        <v>0.9925319805649135</v>
       </c>
       <c r="F25">
-        <v>0.946573253437432</v>
+        <v>1.007402303996915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525858</v>
+        <v>1.039827099595058</v>
       </c>
       <c r="J25">
-        <v>1.000171654617529</v>
+        <v>1.008380039317072</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.017733724846022</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509164</v>
+        <v>1.005247344828618</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521291</v>
+        <v>1.019886785333743</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.006847097214727</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024311261102796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9887875137011879</v>
+        <v>0.9898547078077644</v>
       </c>
       <c r="D2">
-        <v>1.009095875693648</v>
+        <v>1.010201502634747</v>
       </c>
       <c r="E2">
-        <v>0.9968261110548381</v>
+        <v>0.9977459555566864</v>
       </c>
       <c r="F2">
-        <v>1.011764983448423</v>
+        <v>1.012227295488181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041132350192691</v>
+        <v>1.041693399609341</v>
       </c>
       <c r="J2">
-        <v>1.011308839615128</v>
+        <v>1.012343155806902</v>
       </c>
       <c r="K2">
-        <v>1.020429928455733</v>
+        <v>1.021520520562578</v>
       </c>
       <c r="L2">
-        <v>1.008329841010221</v>
+        <v>1.009236782377889</v>
       </c>
       <c r="M2">
-        <v>1.023062810974761</v>
+        <v>1.023518872907941</v>
       </c>
       <c r="N2">
-        <v>1.007825402831285</v>
+        <v>1.010573300720286</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.026824925978897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.027185875348374</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017949022625664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9926726998109509</v>
+        <v>0.9935668993592973</v>
       </c>
       <c r="D3">
-        <v>1.011829254547341</v>
+        <v>1.012698137699701</v>
       </c>
       <c r="E3">
-        <v>0.9998665037024066</v>
+        <v>1.000637762550064</v>
       </c>
       <c r="F3">
-        <v>1.014860251436169</v>
+        <v>1.015247105987516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042018147358797</v>
+        <v>1.042459542952319</v>
       </c>
       <c r="J3">
-        <v>1.013365127242959</v>
+        <v>1.014234486835533</v>
       </c>
       <c r="K3">
-        <v>1.022312982574491</v>
+        <v>1.02317108124146</v>
       </c>
       <c r="L3">
-        <v>1.010501092923565</v>
+        <v>1.011262489584222</v>
       </c>
       <c r="M3">
-        <v>1.025306458806729</v>
+        <v>1.025688544555569</v>
       </c>
       <c r="N3">
-        <v>1.00851210472844</v>
+        <v>1.011076200820127</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.028600655058245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028903055346631</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018283306139655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9951354490272876</v>
+        <v>0.9959214790880886</v>
       </c>
       <c r="D4">
-        <v>1.013560573762113</v>
+        <v>1.014280613799134</v>
       </c>
       <c r="E4">
-        <v>1.001799563991801</v>
+        <v>1.002477732773438</v>
       </c>
       <c r="F4">
-        <v>1.016831158544868</v>
+        <v>1.017170926925484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042563303456801</v>
+        <v>1.04292934831596</v>
       </c>
       <c r="J4">
-        <v>1.014664414414941</v>
+        <v>1.015430092390466</v>
       </c>
       <c r="K4">
-        <v>1.023498043876951</v>
+        <v>1.024209686350597</v>
       </c>
       <c r="L4">
-        <v>1.011876318276792</v>
+        <v>1.012546345447147</v>
       </c>
       <c r="M4">
-        <v>1.026730603266296</v>
+        <v>1.0270664386619</v>
       </c>
       <c r="N4">
-        <v>1.008945920160862</v>
+        <v>1.01139407133154</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.029727788011134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029993583210272</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01849072597218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9961588903683972</v>
+        <v>0.9969003048943281</v>
       </c>
       <c r="D5">
-        <v>1.014279679321963</v>
+        <v>1.014938146495126</v>
       </c>
       <c r="E5">
-        <v>1.002604240764741</v>
+        <v>1.003243974310162</v>
       </c>
       <c r="F5">
-        <v>1.017652303606401</v>
+        <v>1.017972672812784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042785869625388</v>
+        <v>1.043120714479085</v>
       </c>
       <c r="J5">
-        <v>1.015203324390308</v>
+        <v>1.015926117602991</v>
       </c>
       <c r="K5">
-        <v>1.023988405604566</v>
+        <v>1.024639397897183</v>
       </c>
       <c r="L5">
-        <v>1.012447522230782</v>
+        <v>1.013079782787885</v>
       </c>
       <c r="M5">
-        <v>1.02732286986329</v>
+        <v>1.027639630407707</v>
       </c>
       <c r="N5">
-        <v>1.009125833435011</v>
+        <v>1.011525937350432</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.030196534299097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030447232638573</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018575830125086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963300432511645</v>
+        <v>0.9970640157833618</v>
       </c>
       <c r="D6">
-        <v>1.014399913461591</v>
+        <v>1.015048099852137</v>
       </c>
       <c r="E6">
-        <v>1.002738887821158</v>
+        <v>1.003372208076421</v>
       </c>
       <c r="F6">
-        <v>1.017789748395816</v>
+        <v>1.018106883029814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042822853915691</v>
+        <v>1.043152487617363</v>
       </c>
       <c r="J6">
-        <v>1.015293386013526</v>
+        <v>1.016009019104113</v>
       </c>
       <c r="K6">
-        <v>1.02407028432745</v>
+        <v>1.024711146197338</v>
       </c>
       <c r="L6">
-        <v>1.012543027796993</v>
+        <v>1.013168984245188</v>
       </c>
       <c r="M6">
-        <v>1.027421941113389</v>
+        <v>1.027735520018696</v>
       </c>
       <c r="N6">
-        <v>1.009155898868177</v>
+        <v>1.011547975712421</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.030274943688805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03052312391045</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018589997519818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9951491705810096</v>
+        <v>0.9959422824747172</v>
       </c>
       <c r="D7">
-        <v>1.013570216568904</v>
+        <v>1.014295010106701</v>
       </c>
       <c r="E7">
-        <v>1.001810347194321</v>
+        <v>1.002494832215526</v>
       </c>
       <c r="F7">
-        <v>1.016842159609667</v>
+        <v>1.017184987541287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04256630328346</v>
+        <v>1.04293476618829</v>
       </c>
       <c r="J7">
-        <v>1.014671643853921</v>
+        <v>1.015444228791149</v>
       </c>
       <c r="K7">
-        <v>1.023504626707608</v>
+        <v>1.024220970322253</v>
       </c>
       <c r="L7">
-        <v>1.011883977778749</v>
+        <v>1.012560248404881</v>
       </c>
       <c r="M7">
-        <v>1.026738542254219</v>
+        <v>1.027077403233674</v>
       </c>
       <c r="N7">
-        <v>1.008948333773383</v>
+        <v>1.011423781774808</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.02973407128353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030002261062575</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018493393738851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9901113624793876</v>
+        <v>0.9911429416701288</v>
       </c>
       <c r="D8">
-        <v>1.010027494592835</v>
+        <v>1.011069391511458</v>
       </c>
       <c r="E8">
-        <v>0.997860861398395</v>
+        <v>0.9987509000250149</v>
       </c>
       <c r="F8">
-        <v>1.012817793200242</v>
+        <v>1.01326447457819</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041437565167156</v>
+        <v>1.041966469048759</v>
       </c>
       <c r="J8">
-        <v>1.012010354168896</v>
+        <v>1.013011225625978</v>
       </c>
       <c r="K8">
-        <v>1.021073328874894</v>
+        <v>1.022101479781927</v>
       </c>
       <c r="L8">
-        <v>1.009069886855893</v>
+        <v>1.009947817790175</v>
       </c>
       <c r="M8">
-        <v>1.023826894013226</v>
+        <v>1.024267718503181</v>
       </c>
       <c r="N8">
-        <v>1.008059691946161</v>
+        <v>1.010829842896174</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.027429657972322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027778547391487</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018068536190596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9808244914397504</v>
+        <v>0.9822826432056833</v>
       </c>
       <c r="D9">
-        <v>1.003489042133917</v>
+        <v>1.005107009560731</v>
       </c>
       <c r="E9">
-        <v>0.9906282686598962</v>
+        <v>0.9918835250264328</v>
       </c>
       <c r="F9">
-        <v>1.005471316711211</v>
+        <v>1.006104693267228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039229773712844</v>
+        <v>1.040049080435438</v>
       </c>
       <c r="J9">
-        <v>1.007073044482456</v>
+        <v>1.008476943084724</v>
       </c>
       <c r="K9">
-        <v>1.016525764566406</v>
+        <v>1.018117768965052</v>
       </c>
       <c r="L9">
-        <v>1.003875247976519</v>
+        <v>1.005109673446504</v>
       </c>
       <c r="M9">
-        <v>1.018476244967221</v>
+        <v>1.01909949650167</v>
       </c>
       <c r="N9">
-        <v>1.006410455415165</v>
+        <v>1.009633579999853</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023194886225376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023688160074024</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017245453968696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9744286147874811</v>
+        <v>0.9762229055534744</v>
       </c>
       <c r="D10">
-        <v>0.9989898738232237</v>
+        <v>1.001034986595501</v>
       </c>
       <c r="E10">
-        <v>0.9856917828026129</v>
+        <v>0.9872343295823212</v>
       </c>
       <c r="F10">
-        <v>1.000714558112894</v>
+        <v>1.001494792569462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03764124465358</v>
+        <v>1.038675186674526</v>
       </c>
       <c r="J10">
-        <v>1.003694854902173</v>
+        <v>1.005412718560692</v>
       </c>
       <c r="K10">
-        <v>1.013377390392653</v>
+        <v>1.015385579150471</v>
       </c>
       <c r="L10">
-        <v>1.000324273106692</v>
+        <v>1.001837961914642</v>
       </c>
       <c r="M10">
-        <v>1.015070922966518</v>
+        <v>1.015837110421949</v>
       </c>
       <c r="N10">
-        <v>1.005285781942846</v>
+        <v>1.008939114021022</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020552312140477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.021158675804857</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016671436653868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9723460855808737</v>
+        <v>0.9742917423323392</v>
       </c>
       <c r="D11">
-        <v>0.9975650354423096</v>
+        <v>0.9997732658810646</v>
       </c>
       <c r="E11">
-        <v>0.9841731813178715</v>
+        <v>0.9858448363998753</v>
       </c>
       <c r="F11">
-        <v>1.001173531709727</v>
+        <v>1.002012980541883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037207050567082</v>
+        <v>1.038322721640435</v>
       </c>
       <c r="J11">
-        <v>1.002916334180907</v>
+        <v>1.004774551575594</v>
       </c>
       <c r="K11">
-        <v>1.012533018185436</v>
+        <v>1.014699459342465</v>
       </c>
       <c r="L11">
-        <v>0.9993998703204554</v>
+        <v>1.001038728284608</v>
       </c>
       <c r="M11">
-        <v>1.01607335082368</v>
+        <v>1.016897034581097</v>
       </c>
       <c r="N11">
-        <v>1.005061636497301</v>
+        <v>1.009024706788162</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021790414222176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022441939038409</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016554187026035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9718220392792933</v>
+        <v>0.9738107742303721</v>
       </c>
       <c r="D12">
-        <v>0.9972250727241765</v>
+        <v>0.9994751704979649</v>
       </c>
       <c r="E12">
-        <v>0.9838310111185485</v>
+        <v>0.9855385637460077</v>
       </c>
       <c r="F12">
-        <v>1.002198178216841</v>
+        <v>1.003051277015553</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.0371396767062</v>
+        <v>1.038276233469225</v>
       </c>
       <c r="J12">
-        <v>1.002868741234292</v>
+        <v>1.004766406365432</v>
       </c>
       <c r="K12">
-        <v>1.012405629761737</v>
+        <v>1.014612432324721</v>
       </c>
       <c r="L12">
-        <v>0.99927468083471</v>
+        <v>1.000948167397922</v>
       </c>
       <c r="M12">
-        <v>1.01728338542734</v>
+        <v>1.018120251922846</v>
       </c>
       <c r="N12">
-        <v>1.005074230810956</v>
+        <v>1.009144887436318</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023079332802696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023741053480591</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016554162372189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.972460354930669</v>
+        <v>0.9744014597988646</v>
       </c>
       <c r="D13">
-        <v>0.9976959935172202</v>
+        <v>0.9998900427515897</v>
       </c>
       <c r="E13">
-        <v>0.9843670935340884</v>
+        <v>0.9860325306107202</v>
       </c>
       <c r="F13">
-        <v>1.0037472681168</v>
+        <v>1.004576101652249</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037355245023885</v>
+        <v>1.038463566293909</v>
       </c>
       <c r="J13">
-        <v>1.003380692962596</v>
+        <v>1.005233397033254</v>
       </c>
       <c r="K13">
-        <v>1.012823285396853</v>
+        <v>1.014975308678343</v>
       </c>
       <c r="L13">
-        <v>0.9997549874810542</v>
+        <v>1.00138735639239</v>
       </c>
       <c r="M13">
-        <v>1.018759232886967</v>
+        <v>1.019572411605605</v>
       </c>
       <c r="N13">
-        <v>1.005269847929555</v>
+        <v>1.009263835063326</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024526737217369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025169562095619</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016644374446735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9734224562904992</v>
+        <v>0.975290901406598</v>
       </c>
       <c r="D14">
-        <v>0.998384613142916</v>
+        <v>1.000496852209741</v>
       </c>
       <c r="E14">
-        <v>0.9851305251849134</v>
+        <v>0.9867328496237185</v>
       </c>
       <c r="F14">
-        <v>1.005041043292645</v>
+        <v>1.005836766055713</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.037629771303058</v>
+        <v>1.038696963537838</v>
       </c>
       <c r="J14">
-        <v>1.003981572427062</v>
+        <v>1.005766183654888</v>
       </c>
       <c r="K14">
-        <v>1.01335406667536</v>
+        <v>1.015426361273665</v>
       </c>
       <c r="L14">
-        <v>1.000355758792477</v>
+        <v>1.001926682165976</v>
       </c>
       <c r="M14">
-        <v>1.01988535995502</v>
+        <v>1.020666268186271</v>
       </c>
       <c r="N14">
-        <v>1.005485880978745</v>
+        <v>1.009345140702814</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025592197459529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026209427571112</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016746669923141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739187720256668</v>
+        <v>0.9757500513333287</v>
       </c>
       <c r="D15">
-        <v>0.9987358952047881</v>
+        <v>1.000806708783841</v>
       </c>
       <c r="E15">
-        <v>0.9855161468944985</v>
+        <v>0.9870864329372759</v>
       </c>
       <c r="F15">
-        <v>1.005518809908437</v>
+        <v>1.006298284286869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.037761834948852</v>
+        <v>1.038808213237446</v>
       </c>
       <c r="J15">
-        <v>1.004260370250821</v>
+        <v>1.006010215831454</v>
       </c>
       <c r="K15">
-        <v>1.013609629700441</v>
+        <v>1.015641584680333</v>
       </c>
       <c r="L15">
-        <v>1.000642996628431</v>
+        <v>1.002182751652436</v>
       </c>
       <c r="M15">
-        <v>1.02026604125795</v>
+        <v>1.0210311206158</v>
       </c>
       <c r="N15">
-        <v>1.005582044203512</v>
+        <v>1.009370434013587</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025930996246222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026535699140232</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016793431618565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9764876293212136</v>
+        <v>0.978136008655714</v>
       </c>
       <c r="D16">
-        <v>1.00053896683172</v>
+        <v>1.002403969233994</v>
       </c>
       <c r="E16">
-        <v>0.9874825631526807</v>
+        <v>0.9888961120788504</v>
       </c>
       <c r="F16">
-        <v>1.007273547273471</v>
+        <v>1.007975422656837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.038405208323486</v>
+        <v>1.039348191778834</v>
       </c>
       <c r="J16">
-        <v>1.005586315154554</v>
+        <v>1.007165113311084</v>
       </c>
       <c r="K16">
-        <v>1.014861847726855</v>
+        <v>1.01669340394626</v>
       </c>
       <c r="L16">
-        <v>1.002044207944575</v>
+        <v>1.00343151028286</v>
       </c>
       <c r="M16">
-        <v>1.021476410176339</v>
+        <v>1.02216589697904</v>
       </c>
       <c r="N16">
-        <v>1.006018558450195</v>
+        <v>1.009465910685051</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.026848550199418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.027393522139372</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017013599557239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.977962035734017</v>
+        <v>0.9795159891444165</v>
       </c>
       <c r="D17">
-        <v>1.001567114235888</v>
+        <v>1.003322419864981</v>
       </c>
       <c r="E17">
-        <v>0.9885993642501952</v>
+        <v>0.9899323397356792</v>
       </c>
       <c r="F17">
-        <v>1.007947388933464</v>
+        <v>1.008610135506899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.038753869518694</v>
+        <v>1.039641742089033</v>
       </c>
       <c r="J17">
-        <v>1.006294260262341</v>
+        <v>1.007784751183297</v>
       </c>
       <c r="K17">
-        <v>1.015547721943373</v>
+        <v>1.017272444728699</v>
       </c>
       <c r="L17">
-        <v>1.002810285010253</v>
+        <v>1.004119224639338</v>
       </c>
       <c r="M17">
-        <v>1.021817491922437</v>
+        <v>1.022468863488377</v>
       </c>
       <c r="N17">
-        <v>1.006241992977821</v>
+        <v>1.009526793943057</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.026987710337148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.027502608039458</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017130237970287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786028495640705</v>
+        <v>0.9801209509802086</v>
       </c>
       <c r="D18">
-        <v>1.002000844871925</v>
+        <v>1.003714019287266</v>
       </c>
       <c r="E18">
-        <v>0.9890589229868123</v>
+        <v>0.9903617819071175</v>
       </c>
       <c r="F18">
-        <v>1.007586305883369</v>
+        <v>1.008235974431647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.038872212327417</v>
+        <v>1.039738970882308</v>
       </c>
       <c r="J18">
-        <v>1.006499320058048</v>
+        <v>1.007956587434747</v>
       </c>
       <c r="K18">
-        <v>1.015785130273905</v>
+        <v>1.017468950403593</v>
       </c>
       <c r="L18">
-        <v>1.003069224577611</v>
+        <v>1.004348983677344</v>
       </c>
       <c r="M18">
-        <v>1.021275362185129</v>
+        <v>1.021914042616238</v>
       </c>
       <c r="N18">
-        <v>1.006289616762886</v>
+        <v>1.009516028974652</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026318426479916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.026823399628614</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017160793673598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9784513542612717</v>
+        <v>0.9799838540399816</v>
       </c>
       <c r="D19">
-        <v>1.00186836507505</v>
+        <v>1.003600174636352</v>
       </c>
       <c r="E19">
-        <v>0.9888902163161822</v>
+        <v>0.9902062703898833</v>
       </c>
       <c r="F19">
-        <v>1.006175492712108</v>
+        <v>1.006834825779361</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.038770520704823</v>
+        <v>1.039646765746851</v>
       </c>
       <c r="J19">
-        <v>1.006214358084771</v>
+        <v>1.007685782590068</v>
       </c>
       <c r="K19">
-        <v>1.015590555120603</v>
+        <v>1.017292840922654</v>
       </c>
       <c r="L19">
-        <v>1.002837925005744</v>
+        <v>1.00413076111976</v>
       </c>
       <c r="M19">
-        <v>1.019824497655725</v>
+        <v>1.020472698869727</v>
       </c>
       <c r="N19">
-        <v>1.006167845333602</v>
+        <v>1.009412852419262</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.024840681257363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.025353354441538</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017106444821129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9760911973886311</v>
+        <v>0.9777759051635001</v>
       </c>
       <c r="D20">
-        <v>1.00015950390287</v>
+        <v>1.002077352305803</v>
       </c>
       <c r="E20">
-        <v>0.9869727192331739</v>
+        <v>0.9884209526914757</v>
       </c>
       <c r="F20">
-        <v>1.001958735602578</v>
+        <v>1.002691082603772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038060439735292</v>
+        <v>1.03903043678564</v>
       </c>
       <c r="J20">
-        <v>1.004575924446958</v>
+        <v>1.006191250991459</v>
       </c>
       <c r="K20">
-        <v>1.014199549206594</v>
+        <v>1.01608377206569</v>
       </c>
       <c r="L20">
-        <v>1.001248571957841</v>
+        <v>1.002670507932199</v>
       </c>
       <c r="M20">
-        <v>1.01596723022575</v>
+        <v>1.016686777045096</v>
       </c>
       <c r="N20">
-        <v>1.005579299264542</v>
+        <v>1.00904678670767</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021250878955929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.021820338090626</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016818363797225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9711299652784182</v>
+        <v>0.973186541993147</v>
       </c>
       <c r="D21">
-        <v>0.9966627285149634</v>
+        <v>0.9989943586239394</v>
       </c>
       <c r="E21">
-        <v>0.9831410431301327</v>
+        <v>0.9849107408680505</v>
       </c>
       <c r="F21">
-        <v>0.9978936212606083</v>
+        <v>0.9987897859360469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036781563994739</v>
+        <v>1.03795945872157</v>
       </c>
       <c r="J21">
-        <v>1.001886364263917</v>
+        <v>1.003849731972868</v>
       </c>
       <c r="K21">
-        <v>1.011707603566448</v>
+        <v>1.013994808269004</v>
       </c>
       <c r="L21">
-        <v>0.9984490110736043</v>
+        <v>1.000183736040209</v>
       </c>
       <c r="M21">
-        <v>1.012915009819926</v>
+        <v>1.013794122524517</v>
       </c>
       <c r="N21">
-        <v>1.004677418941704</v>
+        <v>1.008840896550859</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.01879341797633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.019489198187512</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016373690501512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9679868543771801</v>
+        <v>0.9702795887751692</v>
       </c>
       <c r="D22">
-        <v>0.994451001954363</v>
+        <v>0.9970449435992129</v>
       </c>
       <c r="E22">
-        <v>0.9807268240291629</v>
+        <v>0.9827002848223252</v>
       </c>
       <c r="F22">
-        <v>0.9954555132695346</v>
+        <v>0.9964555946876109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03596164338937</v>
+        <v>1.037271096911877</v>
       </c>
       <c r="J22">
-        <v>1.000199401124537</v>
+        <v>1.00238202544924</v>
       </c>
       <c r="K22">
-        <v>1.010133192926721</v>
+        <v>1.012675168915024</v>
       </c>
       <c r="L22">
-        <v>0.9966900052350666</v>
+        <v>0.9986224229923533</v>
       </c>
       <c r="M22">
-        <v>1.011117538116131</v>
+        <v>1.012097595466621</v>
       </c>
       <c r="N22">
-        <v>1.004113694109622</v>
+        <v>1.008709451073262</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01737079351855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.018146468725889</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016091435585726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9696599979264924</v>
+        <v>0.9718144263360121</v>
       </c>
       <c r="D23">
-        <v>0.9956282157673979</v>
+        <v>0.9980732925816791</v>
       </c>
       <c r="E23">
-        <v>0.9820111681495443</v>
+        <v>0.9838649153154834</v>
       </c>
       <c r="F23">
-        <v>0.996752262301142</v>
+        <v>0.997691511323863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036399559287435</v>
+        <v>1.037634340694684</v>
       </c>
       <c r="J23">
-        <v>1.001097685636424</v>
+        <v>1.003151754143951</v>
       </c>
       <c r="K23">
-        <v>1.010971946435397</v>
+        <v>1.013369315815643</v>
       </c>
       <c r="L23">
-        <v>0.9976263163493</v>
+        <v>0.9994425325093148</v>
       </c>
       <c r="M23">
-        <v>1.012074022861421</v>
+        <v>1.012994963530908</v>
       </c>
       <c r="N23">
-        <v>1.004413871791688</v>
+        <v>1.008737215857677</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018127811986078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.018856697958569</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016239644195145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9760969533391917</v>
+        <v>0.9777820503323897</v>
       </c>
       <c r="D24">
-        <v>1.000159658340149</v>
+        <v>1.002078283302099</v>
       </c>
       <c r="E24">
-        <v>0.9869693147134763</v>
+        <v>0.9884180027502947</v>
       </c>
       <c r="F24">
-        <v>1.001764930224653</v>
+        <v>1.002498032118307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038052152454187</v>
+        <v>1.0390225591751</v>
       </c>
       <c r="J24">
-        <v>1.004547227195308</v>
+        <v>1.006163026230112</v>
       </c>
       <c r="K24">
-        <v>1.014183970779135</v>
+        <v>1.016068999991303</v>
       </c>
       <c r="L24">
-        <v>1.001229194487313</v>
+        <v>1.002651610611651</v>
       </c>
       <c r="M24">
-        <v>1.015761122440026</v>
+        <v>1.01648142106993</v>
       </c>
       <c r="N24">
-        <v>1.005566541639692</v>
+        <v>1.009032979262393</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021045992101333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.021616075879503</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016812452653019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9832764492814644</v>
+        <v>0.9846109868562576</v>
       </c>
       <c r="D25">
-        <v>1.00521584208957</v>
+        <v>1.006673626207097</v>
       </c>
       <c r="E25">
-        <v>0.9925319805649135</v>
+        <v>0.9936813123085613</v>
       </c>
       <c r="F25">
-        <v>1.007402303996915</v>
+        <v>1.007981510398279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039827099595058</v>
+        <v>1.040565759585469</v>
       </c>
       <c r="J25">
-        <v>1.008380039317072</v>
+        <v>1.009667588298631</v>
       </c>
       <c r="K25">
-        <v>1.017733724846022</v>
+        <v>1.019169218611759</v>
       </c>
       <c r="L25">
-        <v>1.005247344828618</v>
+        <v>1.006378516156596</v>
       </c>
       <c r="M25">
-        <v>1.019886785333743</v>
+        <v>1.020457174453889</v>
       </c>
       <c r="N25">
-        <v>1.006847097214727</v>
+        <v>1.009917189789242</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024311261102796</v>
+        <v>1.024762696143969</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017464857185917</v>
       </c>
     </row>
   </sheetData>
